--- a/data/income_statement/2digits/size/52_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/52_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>52-Warehousing and support activities for transportation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>52-Warehousing and support activities for transportation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1151 +841,1301 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2568409.20267</v>
+        <v>2677861.58585</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>3242754.54699</v>
+        <v>3340326.07362</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3998242.86823</v>
+        <v>4103148.12608</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>4684608.62196</v>
+        <v>4819073.413170001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>6912534.90919</v>
+        <v>7124232.47019</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7853730.6715</v>
+        <v>8153322.70592</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8302658.249899999</v>
+        <v>8692205.875670001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>8583280.59907</v>
+        <v>9031695.291220002</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>10788573.07844</v>
+        <v>11204729.01315</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>16336002.13977</v>
+        <v>16739731.84415</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>19783608.70583</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>20478128.90766</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>28726431.311</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1905707.73294</v>
+        <v>1967044.60297</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2472928.37265</v>
+        <v>2519879.98015</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3104100.8567</v>
+        <v>3157207.14052</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3604790.40563</v>
+        <v>3681332.07396</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5421368.84012</v>
+        <v>5576271.25951</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5834842.2423</v>
+        <v>6046593.56165</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>6132512.53684</v>
+        <v>6365313.82504</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6542625.854069999</v>
+        <v>6853267.65983</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>7991899.63273</v>
+        <v>8257809.722990001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>11604454.57514</v>
+        <v>11852375.31721</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>13330246.25076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13811209.12056</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>17161917.784</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>589644.8493</v>
+        <v>637968.5861699999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>675725.38399</v>
+        <v>725552.72098</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>800905.2372699999</v>
+        <v>848610.70158</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>973122.50869</v>
+        <v>1022886.71614</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1367835.6671</v>
+        <v>1411489.2437</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1846253.87643</v>
+        <v>1920901.74768</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1957455.03487</v>
+        <v>2092488.70193</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1842570.54667</v>
+        <v>1963220.17479</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>2566859.05424</v>
+        <v>2696935.490100001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4400360.74965</v>
+        <v>4516711.07167</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>6056557.29645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>6239392.693639999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>11041451.847</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>73056.62043000001</v>
+        <v>72848.39671000002</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>94100.79035</v>
+        <v>94893.37248999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>93236.77426000001</v>
+        <v>97330.28398000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>106695.70764</v>
+        <v>114854.62307</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>123330.40197</v>
+        <v>136471.96698</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>172634.55277</v>
+        <v>185827.39659</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>212690.67819</v>
+        <v>234403.3487</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>198084.19833</v>
+        <v>215207.4566</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>229814.39147</v>
+        <v>249983.80006</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>331186.81498</v>
+        <v>370645.45527</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>396805.15862</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>427527.09346</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>523061.68</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>11529.70583</v>
+        <v>12192.28521</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>16068.99089</v>
+        <v>17144.13508</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>14643.23029</v>
+        <v>15381.34987</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>17013.57942</v>
+        <v>18806.78799</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>32280.26384</v>
+        <v>33810.5349</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>48650.97716</v>
+        <v>49816.863</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>54921.70875</v>
+        <v>53351.16973</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>44720.33794</v>
+        <v>48230.19915</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>47718.95496</v>
+        <v>47115.56161</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>113748.92848</v>
+        <v>125701.28076</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>118604.12991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>126642.61157</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>476251.294</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>4682.83407</v>
+        <v>5028.09982</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>8947.231810000001</v>
+        <v>9463.538289999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>7094.072630000001</v>
+        <v>7723.82571</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>8484.96751</v>
+        <v>8626.21414</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>29020.53978</v>
+        <v>29456.22125</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>39544.214</v>
+        <v>41235.85526</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>49114.37071</v>
+        <v>44755.47089</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>36026.97455</v>
+        <v>34396.11930000001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>41312.69751</v>
+        <v>39237.28234000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>77756.7755</v>
+        <v>81507.91314</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>74909.0049</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>82265.56916</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>425489.681</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>5106.2661</v>
+        <v>5251.292109999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>4629.70618</v>
+        <v>5020.23804</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>5713.931199999999</v>
+        <v>5750.23221</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>7284.68168</v>
+        <v>7268.28849</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1946.0067</v>
+        <v>2939.35891</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3078.59771</v>
+        <v>3386.64608</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3157.68258</v>
+        <v>3385.40462</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4094.89367</v>
+        <v>5281.111849999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>2641.40897</v>
+        <v>3571.51749</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>18659.04649</v>
+        <v>18157.54934</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>20242.84153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>20463.81329</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>14976.42</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1740.60566</v>
+        <v>1912.89328</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2492.0529</v>
+        <v>2660.35875</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1835.22646</v>
+        <v>1907.29195</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1243.93023</v>
+        <v>2912.28536</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1313.71736</v>
+        <v>1414.95474</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>6028.16545</v>
+        <v>5194.36166</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2649.65546</v>
+        <v>5210.29422</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>4598.46972</v>
+        <v>8552.968000000001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>3764.84848</v>
+        <v>4306.761779999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>17333.10649</v>
+        <v>26035.81828</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>23452.28348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>23913.22912</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>35785.193</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2556879.49684</v>
+        <v>2665669.30064</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>3226685.5561</v>
+        <v>3323181.93854</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3983599.63794</v>
+        <v>4087766.77621</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>4667595.04254</v>
+        <v>4800266.62518</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>6880254.645350001</v>
+        <v>7090421.93529</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7805079.69434</v>
+        <v>8103505.84292</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8247736.54115</v>
+        <v>8638854.705939999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>8538560.26113</v>
+        <v>8983465.09207</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>10740854.12348</v>
+        <v>11157613.45154</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>16222253.21129</v>
+        <v>16614030.56339</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>19665004.57592</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>20351486.29609</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>28250180.017</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2026281.80441</v>
+        <v>2114198.38495</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>2515933.19296</v>
+        <v>2607863.19857</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>3096874.68072</v>
+        <v>3173217.54042</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3709194.90287</v>
+        <v>3779068.15354</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>5608603.12204</v>
+        <v>5755721.31608</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>6377590.29114</v>
+        <v>6606278.15062</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6749044.44586</v>
+        <v>7009968.018230001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6989179.738139999</v>
+        <v>7328880.943200001</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>8937635.867139999</v>
+        <v>9232832.45317</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>13923568.57959</v>
+        <v>14152144.48498</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>16945079.25301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>17656093.0079</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>24693213.251</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>23049.04187</v>
+        <v>24899.81769</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>21664.30913</v>
+        <v>25396.7512</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>52833.50367</v>
+        <v>53340.79626</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>59674.02112999999</v>
+        <v>57358.96753999999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>55797.73079</v>
+        <v>56116.01228</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>68199.76092</v>
+        <v>77903.47861000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>47357.58347</v>
+        <v>48268.1215</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>116068.7879</v>
+        <v>118639.09541</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>128416.70026</v>
+        <v>132192.67272</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>135153.41025</v>
+        <v>135608.47097</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>154917.1589</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>174446.83766</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>204873.389</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>332362.86144</v>
+        <v>331149.05142</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>392458.89266</v>
+        <v>396842.2952999999</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>447634.83419</v>
+        <v>448085.7229399999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>510475.4328</v>
+        <v>507892.00523</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>940852.18753</v>
+        <v>941744.28694</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>941847.81788</v>
+        <v>970729.5528800001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1070680.45781</v>
+        <v>1088410.44243</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1049011.1351</v>
+        <v>1092006.77581</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1372586.89784</v>
+        <v>1400387.90351</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1832215.70682</v>
+        <v>1843085.4469</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2558643.05786</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2668257.16862</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>5534591.62</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1666754.29443</v>
+        <v>1754302.4243</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>2096765.34568</v>
+        <v>2182014.39298</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2583219.25503</v>
+        <v>2659337.14281</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>3126349.55048</v>
+        <v>3197321.02126</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>4597144.73896</v>
+        <v>4735785.64037</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>5351244.803850001</v>
+        <v>5543307.47244</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>5595353.367</v>
+        <v>5839043.99159</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>5798408.58009</v>
+        <v>6094035.47604</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>7372597.34271</v>
+        <v>7635402.37278</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>11919075.79884</v>
+        <v>12113589.26941</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>14165961.6598</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14518041.17022</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>18826218.854</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>4115.60667</v>
+        <v>3847.091539999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>5044.64549</v>
+        <v>3609.75909</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>13187.08783</v>
+        <v>12453.87841</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>12695.89846</v>
+        <v>16496.15951</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>14808.46476</v>
+        <v>22075.37649</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>16297.90849</v>
+        <v>14337.64669</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>35653.03758</v>
+        <v>34245.46271</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>25691.23505</v>
+        <v>24199.59594</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>64034.92633</v>
+        <v>64849.50416</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>37123.66368</v>
+        <v>59861.2977</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>65557.37645</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>295347.8314</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>127529.388</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>530597.6924300001</v>
+        <v>551470.9156900001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>710752.36314</v>
+        <v>715318.73997</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>886724.95722</v>
+        <v>914549.2357899999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>958400.1396700001</v>
+        <v>1021198.47164</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1271651.52331</v>
+        <v>1334700.61921</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1427489.4032</v>
+        <v>1497227.6923</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1498692.09529</v>
+        <v>1628886.68771</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1549380.52299</v>
+        <v>1654584.14887</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1803218.25634</v>
+        <v>1924780.99837</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2298684.6317</v>
+        <v>2461886.07841</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2719925.32291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2695393.28819</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3556966.766</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>397586.31777</v>
+        <v>438767.77325</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>497278.68414</v>
+        <v>540990.1687</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>632639.81069</v>
+        <v>684586.09169</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>724914.87495</v>
+        <v>803067.8797199999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1002539.00811</v>
+        <v>1062331.5651</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1132203.40499</v>
+        <v>1242872.67544</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1199853.06388</v>
+        <v>1314494.88443</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1279980.9914</v>
+        <v>1354692.54091</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1439868.6299</v>
+        <v>1534209.35684</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1764164.63685</v>
+        <v>1833855.82964</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2108319.68548</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2149794.78383</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2519840.757</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>243.71894</v>
+        <v>218.24492</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>67.98922</v>
+        <v>25.67993</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>70.42984</v>
+        <v>51.68477</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>32.78235</v>
+        <v>140.1816</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>101.5403</v>
+        <v>84.71166000000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>231.28106</v>
+        <v>214.45242</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>35.2052</v>
+        <v>18.37656</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4462.5773</v>
+        <v>4375.2401</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1932.15349</v>
+        <v>1710.59781</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>19.00309</v>
+        <v>1.58881</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>236.30811</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3585.98106</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>6988.651</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>40951.93847</v>
+        <v>43240.69444000001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>57422.87606</v>
+        <v>60395.84501999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>79575.53469</v>
+        <v>81838.14203999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>101674.47185</v>
+        <v>104587.40164</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>123485.11192</v>
+        <v>127575.97468</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>135213.36913</v>
+        <v>139012.9777</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>136886.74596</v>
+        <v>143901.7354</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>157512.41237</v>
+        <v>161398.22943</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>152566.89092</v>
+        <v>160889.25985</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>238403.90037</v>
+        <v>241407.7784</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>329114.57613</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>330582.29415</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>404935.909</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>356390.66036</v>
+        <v>395308.83389</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>439787.81886</v>
+        <v>480568.64375</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>552993.84616</v>
+        <v>602696.26488</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>623207.62075</v>
+        <v>698340.29648</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>878952.35589</v>
+        <v>934670.87876</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>996758.7548</v>
+        <v>1103645.24532</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1062931.11272</v>
+        <v>1170574.77247</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1118006.00173</v>
+        <v>1188919.07138</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1285369.58549</v>
+        <v>1371609.49918</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1525741.73339</v>
+        <v>1592446.46243</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1778968.80124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1815626.50862</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2107916.197</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>133011.37466</v>
+        <v>112703.14244</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>213473.679</v>
+        <v>174328.57127</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>254085.14653</v>
+        <v>229963.1441</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>233485.26472</v>
+        <v>218130.59192</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>269112.5152</v>
+        <v>272369.05411</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>295285.99821</v>
+        <v>254355.01686</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>298839.0314100001</v>
+        <v>314391.80328</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>269399.53159</v>
+        <v>299891.6079600001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>363349.62644</v>
+        <v>390571.64153</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>534519.99485</v>
+        <v>628030.2487699999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>611605.63743</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>545598.50436</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1037126.009</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>65535.04099</v>
+        <v>140807.75823</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>72772.52242000001</v>
+        <v>170350.71935</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>95439.91302000001</v>
+        <v>217894.81335</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>91659.14942</v>
+        <v>229170.90952</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>218990.49794</v>
+        <v>409617.44429</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>202452.75948</v>
+        <v>424346.01385</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>333268.95988</v>
+        <v>3555054.058</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>312141.05534</v>
+        <v>610405.3952200001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>278708.24333</v>
+        <v>645205.5489000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1510226.68098</v>
+        <v>2859573.42699</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1027340.39339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1428680.84379</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4053592.158</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1315.59861</v>
+        <v>12813.7352</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>409.55891</v>
+        <v>24513.65305</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>78.63549999999999</v>
+        <v>21111.39803</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>445.91303</v>
+        <v>12566.41227</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>6272.39296</v>
+        <v>1786.67679</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>7700.37442</v>
+        <v>32967.3239</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>8061.71451</v>
+        <v>48645.50137000001</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>10127.53828</v>
+        <v>43033.28741999999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>3574.8187</v>
+        <v>30587.20784</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>38812.80497999999</v>
+        <v>13012.84196</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>36556.1025</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>162982.41186</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>33410.098</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>113.74386</v>
+        <v>89.78057000000001</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>344.5793</v>
+        <v>162.0081</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>1357.53051</v>
+        <v>21655.99254</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>419.71133</v>
+        <v>25281.3859</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>2102.04978</v>
+        <v>48647.32759</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>3222.60169</v>
+        <v>2996.41166</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>2506.2677</v>
+        <v>4001.1636</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>2976.43599</v>
+        <v>575.02139</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>3292.23052</v>
+        <v>701.5524</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>5326.61753</v>
+        <v>214392.67027</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>7136.788509999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>9092.02212</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>109989.664</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>9297.078539999999</v>
+        <v>19065.17296</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>7841.03137</v>
+        <v>14542.39783</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>7671.44016</v>
+        <v>23712.01982</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>11475.85047</v>
+        <v>32523.95094</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>13375.4657</v>
+        <v>39859.67946</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>17771.49974</v>
+        <v>43684.45633</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>22395.67369</v>
+        <v>51203.60832</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>22278.16545</v>
+        <v>46690.13137</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>24184.25395</v>
+        <v>77659.94929999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>69445.97881</v>
+        <v>125068.05347</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>78215.92688</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>109967.44668</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>147537.757</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>7270.78453</v>
+        <v>6543.61557</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>8506.05348</v>
+        <v>11756.41535</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>3797.91791</v>
+        <v>3819.31956</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>9120.3261</v>
+        <v>8630.966420000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>9959.75626</v>
+        <v>8193.37009</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>10664.68004</v>
+        <v>9457.672570000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>8897.78973</v>
+        <v>43431.96167</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5192.78603</v>
+        <v>3916.081900000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>6262.76386</v>
+        <v>4333.397730000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>9282.04336</v>
+        <v>10937.73212</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>7890.74088</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>8943.284689999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>4522.425</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>405.85396</v>
+        <v>408.73479</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>829.2593300000001</v>
+        <v>734.6336</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>586.98375</v>
+        <v>466.96219</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>735.55796</v>
+        <v>695.02991</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1938.91466</v>
+        <v>2049.76704</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1678.35379</v>
+        <v>1686.90945</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2628.70179</v>
+        <v>2897.415590000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>3347.75509</v>
+        <v>2329.24933</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2234.6355</v>
+        <v>2308.82315</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>5663.31146</v>
+        <v>5709.095740000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>7147.31702</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>7407.700869999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>6121.277</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>507.99405</v>
+        <v>288.82642</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>2983.83848</v>
+        <v>2479.44883</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1028.1913</v>
+        <v>389.43676</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1575.36963</v>
+        <v>1676.16786</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1890.92316</v>
+        <v>1606.33067</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1063.71577</v>
+        <v>2398.59923</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2260.59316</v>
+        <v>1307.28072</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1714.45801</v>
+        <v>2547.29404</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1437.73041</v>
+        <v>2751.20232</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>5065.50014</v>
+        <v>6199.742230000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>4226.47128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>3200.90807</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>11253.321</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>38283.46126</v>
+        <v>87305.73645</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>40953.15537000001</v>
+        <v>98843.22977999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>64028.87502000001</v>
+        <v>127718.6179</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>48679.79519</v>
+        <v>117577.74063</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>159637.15717</v>
+        <v>273141.69843</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>124982.23418</v>
+        <v>282833.86531</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>238733.69268</v>
+        <v>3338434.15844</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>216182.65561</v>
+        <v>440126.0895100001</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>188465.85309</v>
+        <v>433149.8781099999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1165121.91611</v>
+        <v>2231478.56518</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>576746.71562</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>822368.7915899999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3320377.891</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>11.60127</v>
+        <v>28.80313</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>0.44772</v>
+        <v>0</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>136.48153</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>31.77002</v>
+        <v>33.53055000000001</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>165.81006</v>
+        <v>114.26398</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>13.75543</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>45.33841</v>
+        <v>0.21355</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>48.23604</v>
+        <v>48.27552</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>4.9823</v>
+        <v>6.93871</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>100.13191</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>155.56255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>149.8961</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>77.18300000000001</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>16.04927</v>
+        <v>4.8</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>30.70205</v>
+        <v>4.27797</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>436.10117</v>
@@ -2096,16 +2147,16 @@
         <v>20.54772</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>43.20561</v>
+        <v>31.18384</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>970.09456</v>
+        <v>970.05638</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>436.26455</v>
+        <v>355.66454</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>165.17875</v>
+        <v>162.97875</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>583.0409599999999</v>
@@ -2113,251 +2164,286 @@
       <c r="M34" s="48" t="n">
         <v>672.2134599999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>107.111</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>8312.87564</v>
+        <v>14258.55314</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>10873.89641</v>
+        <v>17314.65484</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>16317.75617</v>
+        <v>18448.48385</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>19136.70523</v>
+        <v>30147.57458</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>23627.48047</v>
+        <v>34197.78251999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>35312.33881</v>
+        <v>48275.83613</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>46769.09365</v>
+        <v>64162.69836</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>49836.76029</v>
+        <v>70784.3002</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>49085.79625</v>
+        <v>93543.62059000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>210825.33572</v>
+        <v>252091.55315</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>308592.55469</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>303896.1683500001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>420195.431</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>52383.85525</v>
+        <v>88417.74991</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>60258.84359</v>
+        <v>104309.0653</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>85131.51109</v>
+        <v>140488.03356</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>75023.90151000001</v>
+        <v>138094.06553</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>165690.05206</v>
+        <v>295056.41598</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>151228.79359</v>
+        <v>325140.59465</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>265660.88032</v>
+        <v>3448442.91548</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>221184.33338</v>
+        <v>578142.18641</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>216980.1017</v>
+        <v>472779.04707</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1380408.75314</v>
+        <v>2367744.45589</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>869774.1253600001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1061445.47947</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3208803.152</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>6348.46318</v>
+        <v>6281.32628</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>6444.328489999999</v>
+        <v>6554.8514</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>5456.28091</v>
+        <v>5650.05231</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>7333.37535</v>
+        <v>7380.092110000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>7184.34128</v>
+        <v>7171.885939999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>11118.56485</v>
+        <v>12122.35368</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>8101.708289999999</v>
+        <v>8699.10405</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>7134.567389999999</v>
+        <v>7983.24292</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>6578.050369999999</v>
+        <v>7412.64561</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>11792.75932</v>
+        <v>11861.97474</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>9365.335869999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>10020.10388</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>23330.538</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>5179.48279</v>
+        <v>5352.77762</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>3175.67665</v>
+        <v>2639.6067</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2793.68736</v>
+        <v>2578.16912</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>4719.21925</v>
+        <v>4864.63437</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>12332.3958</v>
+        <v>12584.3242</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>5380.701</v>
+        <v>6131.19249</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>8464.731679999999</v>
+        <v>8764.008089999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>8677.307790000001</v>
+        <v>8131.941430000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>9294.703780000002</v>
+        <v>15696.88171</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>27932.57559</v>
+        <v>28619.15826</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>30227.15111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>29688.81005</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>26762.006</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>30.44225</v>
+        <v>682.45444</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>3127.71862</v>
+        <v>34.85346</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>239.68299</v>
+        <v>166.48581</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>404.91779</v>
+        <v>327.72214</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>943.29976</v>
+        <v>2378.94833</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>306.0719</v>
+        <v>294.55017</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>735.6116500000001</v>
+        <v>4260.626139999999</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>232.64107</v>
+        <v>468.03583</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>7168.056960000001</v>
+        <v>1523.11668</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>251.1825</v>
+        <v>1688.97571</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>998.2112300000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>303.42756</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>1420.644</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>37293.58659</v>
+        <v>72943.45533</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>40663.30932</v>
+        <v>86379.32966</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>66085.20323999999</v>
+        <v>120086.94898</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>48271.56878</v>
+        <v>106718.04837</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>137061.99065</v>
+        <v>263463.67154</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>118324.70392</v>
+        <v>285621.57029</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>206793.50914</v>
+        <v>3379459.58898</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>188657.4999</v>
+        <v>532210.78169</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>176505.276</v>
+        <v>412906.2044700001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1199273.1667</v>
+        <v>2188324.35539</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>590984.23726</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>780351.0613399999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2818806.993</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0</v>
+        <v>135.78579</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>66.89751</v>
+        <v>66.36230999999999</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>209.82586</v>
@@ -2372,10 +2458,10 @@
         <v>75.32545</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>805.68439</v>
+        <v>796.48244</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>158.38757</v>
+        <v>42.38646000000001</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>78.15175000000001</v>
@@ -2384,13 +2470,18 @@
         <v>104.61902</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>1330.53877</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>1171.74492</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>85.843</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>10.90843</v>
@@ -2405,7 +2496,7 @@
         <v>110.61616</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>0.00023</v>
+        <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>37.81483</v>
@@ -2420,598 +2511,676 @@
         <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>4e-05</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>385.78449</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>2.386</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>3520.97201</v>
+        <v>3011.04202</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>6780.913</v>
+        <v>8634.06177</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>10307.75255</v>
+        <v>11757.4733</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>13989.63919</v>
+        <v>18498.38739</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>8063.34987</v>
+        <v>9352.9115</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>15985.61164</v>
+        <v>20857.78774</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>40661.80188</v>
+        <v>46365.27249</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>16308.59068</v>
+        <v>29290.4591</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>17355.86284</v>
+        <v>35162.04684999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>141054.44993</v>
+        <v>137145.37273</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>236482.86663</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>239524.54723</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>338394.742</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>35071.75325</v>
+        <v>48113.31435</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>28792.98845</v>
+        <v>43115.88423</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>36285.91354</v>
+        <v>73124.2858</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>41370.04872</v>
+        <v>79060.33816</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>58950.70817000001</v>
+        <v>107828.73352</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>65211.72502000001</v>
+        <v>124300.79369</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>80058.49856000001</v>
+        <v>165291.08004</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>89389.01325999999</v>
+        <v>212320.1609</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>100431.23189</v>
+        <v>219986.88339</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>228766.41133</v>
+        <v>529438.5020099999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>262262.11102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>398755.73434</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>967793.157</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>33514.94377000001</v>
+        <v>42479.82356</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>26833.05668</v>
+        <v>37498.15201</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>34224.5924</v>
+        <v>69526.56728</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>38698.9323</v>
+        <v>65537.49786999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>54650.0173</v>
+        <v>80618.77623</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>60783.70535</v>
+        <v>92021.96843000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>74394.73116</v>
+        <v>133919.0997</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>83743.74075</v>
+        <v>190793.13455</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>94240.20320999999</v>
+        <v>201644.26896</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>214149.71275</v>
+        <v>500175.5168200001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>234332.44496</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>356614.23602</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>537284.231</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>1556.80948</v>
+        <v>5633.49079</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1959.93177</v>
+        <v>5617.732220000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>2061.32114</v>
+        <v>3597.71852</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>2671.11642</v>
+        <v>13522.84029</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>4300.69087</v>
+        <v>27209.95729</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4428.01967</v>
+        <v>32278.82526</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>5663.767400000001</v>
+        <v>31371.98034</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>5645.27251</v>
+        <v>21527.02635</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>6191.028679999999</v>
+        <v>18342.61443</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>14616.69858</v>
+        <v>29262.98519</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>27929.66606</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>42141.49832</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>430508.926</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>111090.80715</v>
+        <v>116979.83641</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>197194.36938</v>
+        <v>197254.34109</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>228107.63492</v>
+        <v>234245.63809</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>208750.46391</v>
+        <v>230147.09775</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>263462.25291</v>
+        <v>279101.3489</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>281298.23908</v>
+        <v>229259.64237</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>286388.6124099999</v>
+        <v>255711.86576</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>270967.24029</v>
+        <v>119834.65587</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>324646.53618</v>
+        <v>343011.25997</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>435571.5113599999</v>
+        <v>590420.71786</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>506909.79444</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>514078.13434</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>914121.858</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>22202.73157</v>
+        <v>25211.26446</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>25201.40763</v>
+        <v>28570.67318</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>25150.63737</v>
+        <v>40726.88408</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>29686.31068</v>
+        <v>94145.04736</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>43016.89463</v>
+        <v>63202.34045</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>61252.39801</v>
+        <v>86741.50201000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>81428.21621</v>
+        <v>104581.90211</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>75902.31378999999</v>
+        <v>98283.98139999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>85492.98926</v>
+        <v>210275.94781</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>198548.27069</v>
+        <v>195902.87011</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>171545.30576</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>164506.55559</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>290092.364</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>246.21473</v>
+        <v>293.49031</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1930.90689</v>
+        <v>1266.47755</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>220.14248</v>
+        <v>460.6348</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1880.03755</v>
+        <v>591.9364899999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1135.26176</v>
+        <v>3508.13065</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>451.59291</v>
+        <v>846.7064399999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1038.10857</v>
+        <v>1145.98009</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>867.89504</v>
+        <v>920.0492399999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1984.50008</v>
+        <v>2456.09817</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>2594.73254</v>
+        <v>10791.80254</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>3164.01919</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3627.05321</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>3737.307</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>21956.51684</v>
+        <v>24917.77415</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>23270.50074</v>
+        <v>27304.19563</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>24930.49489</v>
+        <v>40266.24928</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>27806.27313</v>
+        <v>93553.11087</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>41881.63287</v>
+        <v>59694.2098</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>60800.80510000001</v>
+        <v>85894.79556999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>80390.10764</v>
+        <v>103435.92202</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>75034.41875</v>
+        <v>97363.93216</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>83508.48918</v>
+        <v>207819.84964</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>195953.53815</v>
+        <v>185111.06757</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>168381.28657</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>160879.50238</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>286355.057</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>18332.13684</v>
+        <v>19695.80211</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>42436.64019</v>
+        <v>33564.48047</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>322378.91049</v>
+        <v>314236.45866</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>55200.42817</v>
+        <v>69765.32629</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>41290.44244</v>
+        <v>51498.04122</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>145574.30908</v>
+        <v>166629.50724</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>65017.0496</v>
+        <v>71526.00403</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>269138.8968400001</v>
+        <v>296713.35633</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>80237.21354</v>
+        <v>91518.80022</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>333623.0669</v>
+        <v>550318.5804600001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>107718.8569</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>212795.53699</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>201954.9</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>732.92989</v>
+        <v>2119.74028</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>756.33025</v>
+        <v>288.30587</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>921.1464100000001</v>
+        <v>1402.14275</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>260.83322</v>
+        <v>676.5361899999999</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>466.51136</v>
+        <v>1161.48393</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>382.26319</v>
+        <v>1048.10768</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>334.46593</v>
+        <v>999.9951</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2069.09949</v>
+        <v>3805.66077</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2084.29803</v>
+        <v>2092.0732</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1948.3299</v>
+        <v>835.4411600000001</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2481.77365</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2398.7701</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>2316.883</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1068.97468</v>
+        <v>1085.63896</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>4982.59984</v>
+        <v>5049.343879999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3052.60142</v>
+        <v>1993.49617</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3161.0336</v>
+        <v>1859.75307</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1627.99711</v>
+        <v>11525.22915</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3061.59806</v>
+        <v>3685.66429</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2572.10368</v>
+        <v>3061.73827</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>7095.83442</v>
+        <v>7654.90066</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3347.3246</v>
+        <v>4539.59483</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2932.0615</v>
+        <v>39439.67545999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>5224.55317</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5999.00236</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>9088.245999999999</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>16530.23227</v>
+        <v>16490.42287</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>36697.7101</v>
+        <v>28226.83072</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>318405.16266</v>
+        <v>310840.81974</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>51778.56135</v>
+        <v>67229.03703000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>39195.93397</v>
+        <v>38811.32814</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>142130.44783</v>
+        <v>161895.73527</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>62110.47999</v>
+        <v>67464.27065999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>259973.96293</v>
+        <v>285252.7949</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>74805.59091</v>
+        <v>84887.13219</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>328742.6755</v>
+        <v>510043.46384</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>100012.53008</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>204397.76453</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>190549.771</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>114961.40188</v>
+        <v>122495.29876</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>179959.13682</v>
+        <v>192260.5338</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-69120.6382</v>
+        <v>-39263.93649</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>183236.34642</v>
+        <v>254526.81882</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>265188.7051</v>
+        <v>290805.64813</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>196976.32801</v>
+        <v>149371.63714</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>302799.77902</v>
+        <v>288767.76384</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>77730.65724000002</v>
+        <v>-78594.71906</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>329902.3119</v>
+        <v>461768.40756</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>300496.71515</v>
+        <v>236005.00751</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>570736.2433</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>465789.1529399999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1002259.322</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>27674.54667</v>
+        <v>30167.47004</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>40500.54902</v>
+        <v>42449.57923</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>48163.98975</v>
+        <v>50252.32667</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>50970.91753</v>
+        <v>61093.28896</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>61757.68616</v>
+        <v>67532.54612</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>64691.02314</v>
+        <v>73706.95857999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>76656.33626</v>
+        <v>87307.39931000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>79645.20062</v>
+        <v>88380.64303000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>91578.05144</v>
+        <v>112389.20308</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>158017.88016</v>
+        <v>179921.11393</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>167866.45737</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>187220.91064</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>266086.038</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>87286.85520999999</v>
+        <v>92327.82872</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>139458.5878</v>
+        <v>149810.95457</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-117284.62795</v>
+        <v>-89516.26316</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>132265.42889</v>
+        <v>193433.52986</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>203431.01894</v>
+        <v>223273.10201</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>132285.30487</v>
+        <v>75664.67855999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>226143.44276</v>
+        <v>201460.36453</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-1914.543380000001</v>
+        <v>-166975.36209</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>238324.26046</v>
+        <v>349379.20448</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>142478.83499</v>
+        <v>56083.89358</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>402869.78593</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>278568.2423</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>736173.284</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1519</v>
+        <v>1369</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1692</v>
+        <v>1488</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1880</v>
+        <v>1672</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2087</v>
+        <v>1852</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2432</v>
+        <v>2108</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2633</v>
+        <v>2264</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2802</v>
+        <v>2370</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2925</v>
+        <v>2406</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>3203</v>
+        <v>2580</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2380</v>
+        <v>2084</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2484</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2145</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>